--- a/src/test/resources/Datas/Datas.xlsx
+++ b/src/test/resources/Datas/Datas.xlsx
@@ -61,7 +61,7 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>06000000</t>
+    <t>0600000001</t>
   </si>
   <si>
     <t>testQA@gmail.com</t>
@@ -88,7 +88,7 @@
     <t>Auto1</t>
   </si>
   <si>
-    <t>06000001</t>
+    <t>0600000002</t>
   </si>
   <si>
     <t>testQA1@gmail.com</t>
@@ -115,7 +115,7 @@
     <t>Auto2</t>
   </si>
   <si>
-    <t>6000002</t>
+    <t>0600000003</t>
   </si>
   <si>
     <t>testQA2@gmail.com</t>
